--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H2">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I2">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J2">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N2">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O2">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P2">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q2">
-        <v>0.01324769081911111</v>
+        <v>0.02027003378333334</v>
       </c>
       <c r="R2">
-        <v>0.119229217372</v>
+        <v>0.18243030405</v>
       </c>
       <c r="S2">
-        <v>0.000882223314180835</v>
+        <v>0.002272589716583717</v>
       </c>
       <c r="T2">
-        <v>0.000882223314180835</v>
+        <v>0.002272589716583716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H3">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I3">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J3">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P3">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q3">
-        <v>2.921192918656555</v>
+        <v>4.109787094450445</v>
       </c>
       <c r="R3">
-        <v>26.290736267909</v>
+        <v>36.988083850054</v>
       </c>
       <c r="S3">
-        <v>0.1945353747493099</v>
+        <v>0.4607717968322323</v>
       </c>
       <c r="T3">
-        <v>0.1945353747493099</v>
+        <v>0.4607717968322322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H4">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I4">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J4">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N4">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q4">
-        <v>0.2423722708227778</v>
+        <v>0.3436057626728889</v>
       </c>
       <c r="R4">
-        <v>2.181350437405</v>
+        <v>3.092451864056</v>
       </c>
       <c r="S4">
-        <v>0.01614065960252786</v>
+        <v>0.03852361230159235</v>
       </c>
       <c r="T4">
-        <v>0.01614065960252786</v>
+        <v>0.03852361230159234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H5">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I5">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J5">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N5">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O5">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P5">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q5">
-        <v>0.001799024212666667</v>
+        <v>0.021819000968</v>
       </c>
       <c r="R5">
-        <v>0.016191217914</v>
+        <v>0.196371008712</v>
       </c>
       <c r="S5">
-        <v>0.0001198051135750198</v>
+        <v>0.002446253309492649</v>
       </c>
       <c r="T5">
-        <v>0.0001198051135750198</v>
+        <v>0.002446253309492648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H6">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I6">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J6">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N6">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O6">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P6">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q6">
-        <v>0.01863799833688889</v>
+        <v>0.01898138175</v>
       </c>
       <c r="R6">
-        <v>0.167741985032</v>
+        <v>0.17083243575</v>
       </c>
       <c r="S6">
-        <v>0.001241188135123634</v>
+        <v>0.002128111547947609</v>
       </c>
       <c r="T6">
-        <v>0.001241188135123634</v>
+        <v>0.002128111547947609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H7">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I7">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J7">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>20.878373</v>
       </c>
       <c r="O7">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P7">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q7">
-        <v>4.109787094450445</v>
+        <v>3.84851049509</v>
       </c>
       <c r="R7">
-        <v>36.988083850054</v>
+        <v>34.63659445581</v>
       </c>
       <c r="S7">
-        <v>0.2736892067116475</v>
+        <v>0.4314785791081093</v>
       </c>
       <c r="T7">
-        <v>0.2736892067116475</v>
+        <v>0.4314785791081094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H8">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I8">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J8">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N8">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q8">
-        <v>0.3409902934922223</v>
+        <v>0.32176128676</v>
       </c>
       <c r="R8">
-        <v>3.06891264143</v>
+        <v>2.89585158084</v>
       </c>
       <c r="S8">
-        <v>0.02270807727443543</v>
+        <v>0.03607450284995391</v>
       </c>
       <c r="T8">
-        <v>0.02270807727443543</v>
+        <v>0.03607450284995391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H9">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I9">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J9">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N9">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O9">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P9">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q9">
-        <v>0.002531023009333333</v>
+        <v>0.02043187452</v>
       </c>
       <c r="R9">
-        <v>0.022779207084</v>
+        <v>0.18388687068</v>
       </c>
       <c r="S9">
-        <v>0.0001685522056674801</v>
+        <v>0.002290734609572273</v>
       </c>
       <c r="T9">
-        <v>0.0001685522056674801</v>
+        <v>0.002290734609572272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H10">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I10">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J10">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N10">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O10">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P10">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q10">
-        <v>0.02578006505911112</v>
+        <v>0.0009657681999999999</v>
       </c>
       <c r="R10">
-        <v>0.232020585532</v>
+        <v>0.008691913799999999</v>
       </c>
       <c r="S10">
-        <v>0.001716810480165826</v>
+        <v>0.000108277810653093</v>
       </c>
       <c r="T10">
-        <v>0.001716810480165826</v>
+        <v>0.0001082778106530931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H11">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I11">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J11">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.878373</v>
       </c>
       <c r="O11">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P11">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q11">
-        <v>5.684654368936555</v>
+        <v>0.1958113009093333</v>
       </c>
       <c r="R11">
-        <v>51.161889320429</v>
+        <v>1.762301708184</v>
       </c>
       <c r="S11">
-        <v>0.3785667016096828</v>
+        <v>0.02195352773429133</v>
       </c>
       <c r="T11">
-        <v>0.3785667016096829</v>
+        <v>0.02195352773429133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H12">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I12">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J12">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N12">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q12">
-        <v>0.4716575134227778</v>
+        <v>0.01637113793066667</v>
       </c>
       <c r="R12">
-        <v>4.244917620805</v>
+        <v>0.147340241376</v>
       </c>
       <c r="S12">
-        <v>0.03140979513575744</v>
+        <v>0.001835462146126156</v>
       </c>
       <c r="T12">
-        <v>0.03140979513575744</v>
+        <v>0.001835462146126156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H13">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I13">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J13">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,276 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N13">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O13">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P13">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q13">
-        <v>0.003500909092666667</v>
+        <v>0.001039568928</v>
       </c>
       <c r="R13">
-        <v>0.031508181834</v>
+        <v>0.009356120351999999</v>
       </c>
       <c r="S13">
-        <v>0.0002331412820959421</v>
+        <v>0.0001165520334453163</v>
       </c>
       <c r="T13">
-        <v>0.0002331412820959421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.155836</v>
-      </c>
-      <c r="H14">
-        <v>0.467508</v>
-      </c>
-      <c r="I14">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J14">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.03156133333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.094684</v>
-      </c>
-      <c r="O14">
-        <v>0.004167759769700065</v>
-      </c>
-      <c r="P14">
-        <v>0.004167759769700064</v>
-      </c>
-      <c r="Q14">
-        <v>0.004918391941333334</v>
-      </c>
-      <c r="R14">
-        <v>0.044265527472</v>
-      </c>
-      <c r="S14">
-        <v>0.0003275378402297699</v>
-      </c>
-      <c r="T14">
-        <v>0.0003275378402297699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.155836</v>
-      </c>
-      <c r="H15">
-        <v>0.467508</v>
-      </c>
-      <c r="I15">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J15">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.959457666666666</v>
-      </c>
-      <c r="N15">
-        <v>20.878373</v>
-      </c>
-      <c r="O15">
-        <v>0.919015282900934</v>
-      </c>
-      <c r="P15">
-        <v>0.9190152829009339</v>
-      </c>
-      <c r="Q15">
-        <v>1.084534044942667</v>
-      </c>
-      <c r="R15">
-        <v>9.760806404483999</v>
-      </c>
-      <c r="S15">
-        <v>0.07222399983029382</v>
-      </c>
-      <c r="T15">
-        <v>0.07222399983029383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.155836</v>
-      </c>
-      <c r="H16">
-        <v>0.467508</v>
-      </c>
-      <c r="I16">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J16">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5774283333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.732285</v>
-      </c>
-      <c r="O16">
-        <v>0.07625097939097288</v>
-      </c>
-      <c r="P16">
-        <v>0.07625097939097288</v>
-      </c>
-      <c r="Q16">
-        <v>0.08998412175333333</v>
-      </c>
-      <c r="R16">
-        <v>0.80985709578</v>
-      </c>
-      <c r="S16">
-        <v>0.005992447378252152</v>
-      </c>
-      <c r="T16">
-        <v>0.005992447378252154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.155836</v>
-      </c>
-      <c r="H17">
-        <v>0.467508</v>
-      </c>
-      <c r="I17">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J17">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.004286</v>
-      </c>
-      <c r="N17">
-        <v>0.012858</v>
-      </c>
-      <c r="O17">
-        <v>0.0005659779383930065</v>
-      </c>
-      <c r="P17">
-        <v>0.0005659779383930064</v>
-      </c>
-      <c r="Q17">
-        <v>0.000667913096</v>
-      </c>
-      <c r="R17">
-        <v>0.006011217863999999</v>
-      </c>
-      <c r="S17">
-        <v>4.447933705456445E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.447933705456445E-05</v>
+        <v>0.0001165520334453163</v>
       </c>
     </row>
   </sheetData>
